--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Il13ra1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H2">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I2">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J2">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.77817506118275</v>
+        <v>6.490130333333333</v>
       </c>
       <c r="N2">
-        <v>4.77817506118275</v>
+        <v>19.470391</v>
       </c>
       <c r="O2">
-        <v>0.06148139816514173</v>
+        <v>0.07425075126846777</v>
       </c>
       <c r="P2">
-        <v>0.06148139816514173</v>
+        <v>0.07641336284245376</v>
       </c>
       <c r="Q2">
-        <v>5.887472466010077</v>
+        <v>3.116538952298889</v>
       </c>
       <c r="R2">
-        <v>5.887472466010077</v>
+        <v>28.04885057069</v>
       </c>
       <c r="S2">
-        <v>0.03261343439741575</v>
+        <v>0.008797168435567736</v>
       </c>
       <c r="T2">
-        <v>0.03261343439741575</v>
+        <v>0.00995236264186441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H3">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I3">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J3">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.3680620677624</v>
+        <v>33.222491</v>
       </c>
       <c r="N3">
-        <v>31.3680620677624</v>
+        <v>99.667473</v>
       </c>
       <c r="O3">
-        <v>0.4036169225619795</v>
+        <v>0.3800840336118431</v>
       </c>
       <c r="P3">
-        <v>0.4036169225619795</v>
+        <v>0.3911542802576211</v>
       </c>
       <c r="Q3">
-        <v>38.65044695334634</v>
+        <v>15.95332943656333</v>
       </c>
       <c r="R3">
-        <v>38.65044695334634</v>
+        <v>143.57996492907</v>
       </c>
       <c r="S3">
-        <v>0.2141027110396002</v>
+        <v>0.04503204622487548</v>
       </c>
       <c r="T3">
-        <v>0.2141027110396002</v>
+        <v>0.0509453988311909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H4">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I4">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J4">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.9540838676855</v>
+        <v>17.63517166666667</v>
       </c>
       <c r="N4">
-        <v>12.9540838676855</v>
+        <v>52.905515</v>
       </c>
       <c r="O4">
-        <v>0.1666818770630535</v>
+        <v>0.2017563096188048</v>
       </c>
       <c r="P4">
-        <v>0.1666818770630535</v>
+        <v>0.2076326209402719</v>
       </c>
       <c r="Q4">
-        <v>15.96149390024761</v>
+        <v>8.468350650427778</v>
       </c>
       <c r="R4">
-        <v>15.96149390024761</v>
+        <v>76.21515585385001</v>
       </c>
       <c r="S4">
-        <v>0.08841810084137147</v>
+        <v>0.02390392296823702</v>
       </c>
       <c r="T4">
-        <v>0.08841810084137147</v>
+        <v>0.02704285039959379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H5">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I5">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J5">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.1561005317627</v>
+        <v>22.63913333333333</v>
       </c>
       <c r="N5">
-        <v>22.1561005317627</v>
+        <v>67.9174</v>
       </c>
       <c r="O5">
-        <v>0.2850854188341577</v>
+        <v>0.2590044531823235</v>
       </c>
       <c r="P5">
-        <v>0.2850854188341577</v>
+        <v>0.266548161745497</v>
       </c>
       <c r="Q5">
-        <v>27.29984359397147</v>
+        <v>10.87123636288889</v>
       </c>
       <c r="R5">
-        <v>27.29984359397147</v>
+        <v>97.841127266</v>
       </c>
       <c r="S5">
-        <v>0.151226466578294</v>
+        <v>0.030686636313869</v>
       </c>
       <c r="T5">
-        <v>0.151226466578294</v>
+        <v>0.03471623114772384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H6">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I6">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J6">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.46098900199768</v>
+        <v>7.421352000000001</v>
       </c>
       <c r="N6">
-        <v>6.46098900199768</v>
+        <v>14.842704</v>
       </c>
       <c r="O6">
-        <v>0.08313438337566768</v>
+        <v>0.08490445231856092</v>
       </c>
       <c r="P6">
-        <v>0.08313438337566768</v>
+        <v>0.05825157421415626</v>
       </c>
       <c r="Q6">
-        <v>7.960967182110619</v>
+        <v>3.56370849256</v>
       </c>
       <c r="R6">
-        <v>7.960967182110619</v>
+        <v>21.38225095536</v>
       </c>
       <c r="S6">
-        <v>0.04409948113263924</v>
+        <v>0.01005941024455608</v>
       </c>
       <c r="T6">
-        <v>0.04409948113263924</v>
+        <v>0.007586903251909604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H7">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I7">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J7">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.77817506118275</v>
+        <v>6.490130333333333</v>
       </c>
       <c r="N7">
-        <v>4.77817506118275</v>
+        <v>19.470391</v>
       </c>
       <c r="O7">
-        <v>0.06148139816514173</v>
+        <v>0.07425075126846777</v>
       </c>
       <c r="P7">
-        <v>0.06148139816514173</v>
+        <v>0.07641336284245376</v>
       </c>
       <c r="Q7">
-        <v>5.211329164576749</v>
+        <v>11.34839743929078</v>
       </c>
       <c r="R7">
-        <v>5.211329164576749</v>
+        <v>102.135576953617</v>
       </c>
       <c r="S7">
-        <v>0.02886796376772598</v>
+        <v>0.03203353632835713</v>
       </c>
       <c r="T7">
-        <v>0.02886796376772598</v>
+        <v>0.03623999842405805</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H8">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I8">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J8">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3680620677624</v>
+        <v>33.222491</v>
       </c>
       <c r="N8">
-        <v>31.3680620677624</v>
+        <v>99.667473</v>
       </c>
       <c r="O8">
-        <v>0.4036169225619795</v>
+        <v>0.3800840336118431</v>
       </c>
       <c r="P8">
-        <v>0.4036169225619795</v>
+        <v>0.3911542802576211</v>
       </c>
       <c r="Q8">
-        <v>34.21165917883302</v>
+        <v>58.09159638210566</v>
       </c>
       <c r="R8">
-        <v>34.21165917883302</v>
+        <v>522.8243674389511</v>
       </c>
       <c r="S8">
-        <v>0.1895142115223792</v>
+        <v>0.1639772728293466</v>
       </c>
       <c r="T8">
-        <v>0.1895142115223792</v>
+        <v>0.1855098371907297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H9">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I9">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J9">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.9540838676855</v>
+        <v>17.63517166666667</v>
       </c>
       <c r="N9">
-        <v>12.9540838676855</v>
+        <v>52.905515</v>
       </c>
       <c r="O9">
-        <v>0.1666818770630535</v>
+        <v>0.2017563096188048</v>
       </c>
       <c r="P9">
-        <v>0.1666818770630535</v>
+        <v>0.2076326209402719</v>
       </c>
       <c r="Q9">
-        <v>14.12840555141407</v>
+        <v>30.83619691820056</v>
       </c>
       <c r="R9">
-        <v>14.12840555141407</v>
+        <v>277.525772263805</v>
       </c>
       <c r="S9">
-        <v>0.07826377622168204</v>
+        <v>0.08704246035546712</v>
       </c>
       <c r="T9">
-        <v>0.07826377622168204</v>
+        <v>0.09847238199910727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H10">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I10">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J10">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.1561005317627</v>
+        <v>22.63913333333333</v>
       </c>
       <c r="N10">
-        <v>22.1561005317627</v>
+        <v>67.9174</v>
       </c>
       <c r="O10">
-        <v>0.2850854188341577</v>
+        <v>0.2590044531823235</v>
       </c>
       <c r="P10">
-        <v>0.2850854188341577</v>
+        <v>0.266548161745497</v>
       </c>
       <c r="Q10">
-        <v>24.16460916479873</v>
+        <v>39.58593580597778</v>
       </c>
       <c r="R10">
-        <v>24.16460916479873</v>
+        <v>356.2734222538</v>
       </c>
       <c r="S10">
-        <v>0.1338589522558636</v>
+        <v>0.1117406681883052</v>
       </c>
       <c r="T10">
-        <v>0.1338589522558636</v>
+        <v>0.1264138182415608</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.748562333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.245687</v>
+      </c>
+      <c r="I11">
+        <v>0.4314237335125913</v>
+      </c>
+      <c r="J11">
+        <v>0.4742625775909947</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.421352000000001</v>
+      </c>
+      <c r="N11">
+        <v>14.842704</v>
+      </c>
+      <c r="O11">
+        <v>0.08490445231856092</v>
+      </c>
+      <c r="P11">
+        <v>0.05825157421415626</v>
+      </c>
+      <c r="Q11">
+        <v>12.976696569608</v>
+      </c>
+      <c r="R11">
+        <v>77.86017941764801</v>
+      </c>
+      <c r="S11">
+        <v>0.03662979581111534</v>
+      </c>
+      <c r="T11">
+        <v>0.02762654173553887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.482537</v>
+      </c>
+      <c r="I12">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J12">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.490130333333333</v>
+      </c>
+      <c r="N12">
+        <v>19.470391</v>
+      </c>
+      <c r="O12">
+        <v>0.07425075126846777</v>
+      </c>
+      <c r="P12">
+        <v>0.07641336284245376</v>
+      </c>
+      <c r="Q12">
+        <v>1.043909340218556</v>
+      </c>
+      <c r="R12">
+        <v>9.395184061966999</v>
+      </c>
+      <c r="S12">
+        <v>0.002946681058034242</v>
+      </c>
+      <c r="T12">
+        <v>0.003333622482536549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.482537</v>
+      </c>
+      <c r="I13">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J13">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.222491</v>
+      </c>
+      <c r="N13">
+        <v>99.667473</v>
+      </c>
+      <c r="O13">
+        <v>0.3800840336118431</v>
+      </c>
+      <c r="P13">
+        <v>0.3911542802576211</v>
+      </c>
+      <c r="Q13">
+        <v>5.343693713222333</v>
+      </c>
+      <c r="R13">
+        <v>48.093243419001</v>
+      </c>
+      <c r="S13">
+        <v>0.015083839599895</v>
+      </c>
+      <c r="T13">
+        <v>0.01706456376610025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.482537</v>
+      </c>
+      <c r="I14">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J14">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.63517166666667</v>
+      </c>
+      <c r="N14">
+        <v>52.905515</v>
+      </c>
+      <c r="O14">
+        <v>0.2017563096188048</v>
+      </c>
+      <c r="P14">
+        <v>0.2076326209402719</v>
+      </c>
+      <c r="Q14">
+        <v>2.836540943506111</v>
+      </c>
+      <c r="R14">
+        <v>25.528868491555</v>
+      </c>
+      <c r="S14">
+        <v>0.008006807819937796</v>
+      </c>
+      <c r="T14">
+        <v>0.009058216358067727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.482537</v>
+      </c>
+      <c r="I15">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J15">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.63913333333333</v>
+      </c>
+      <c r="N15">
+        <v>67.9174</v>
+      </c>
+      <c r="O15">
+        <v>0.2590044531823235</v>
+      </c>
+      <c r="P15">
+        <v>0.266548161745497</v>
+      </c>
+      <c r="Q15">
+        <v>3.641406493755555</v>
+      </c>
+      <c r="R15">
+        <v>32.7726584438</v>
+      </c>
+      <c r="S15">
+        <v>0.01027873123302633</v>
+      </c>
+      <c r="T15">
+        <v>0.01162847585317767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.482537</v>
+      </c>
+      <c r="I16">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J16">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.421352000000001</v>
+      </c>
+      <c r="N16">
+        <v>14.842704</v>
+      </c>
+      <c r="O16">
+        <v>0.08490445231856092</v>
+      </c>
+      <c r="P16">
+        <v>0.05825157421415626</v>
+      </c>
+      <c r="Q16">
+        <v>1.193692310008</v>
+      </c>
+      <c r="R16">
+        <v>7.162153860048001</v>
+      </c>
+      <c r="S16">
+        <v>0.003369478922647913</v>
+      </c>
+      <c r="T16">
+        <v>0.002541293174648377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.695328</v>
+      </c>
+      <c r="I17">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J17">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.490130333333333</v>
+      </c>
+      <c r="N17">
+        <v>19.470391</v>
+      </c>
+      <c r="O17">
+        <v>0.07425075126846777</v>
+      </c>
+      <c r="P17">
+        <v>0.07641336284245376</v>
+      </c>
+      <c r="Q17">
+        <v>3.667633225916445</v>
+      </c>
+      <c r="R17">
+        <v>33.008699033248</v>
+      </c>
+      <c r="S17">
+        <v>0.01035276238869781</v>
+      </c>
+      <c r="T17">
+        <v>0.01171222835984333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.09065262319769</v>
-      </c>
-      <c r="H11">
-        <v>1.09065262319769</v>
-      </c>
-      <c r="I11">
-        <v>0.4695398060106792</v>
-      </c>
-      <c r="J11">
-        <v>0.4695398060106792</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.46098900199768</v>
-      </c>
-      <c r="N11">
-        <v>6.46098900199768</v>
-      </c>
-      <c r="O11">
-        <v>0.08313438337566768</v>
-      </c>
-      <c r="P11">
-        <v>0.08313438337566768</v>
-      </c>
-      <c r="Q11">
-        <v>7.046694603480195</v>
-      </c>
-      <c r="R11">
-        <v>7.046694603480195</v>
-      </c>
-      <c r="S11">
-        <v>0.03903490224302844</v>
-      </c>
-      <c r="T11">
-        <v>0.03903490224302844</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.695328</v>
+      </c>
+      <c r="I18">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J18">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>33.222491</v>
+      </c>
+      <c r="N18">
+        <v>99.667473</v>
+      </c>
+      <c r="O18">
+        <v>0.3800840336118431</v>
+      </c>
+      <c r="P18">
+        <v>0.3911542802576211</v>
+      </c>
+      <c r="Q18">
+        <v>18.77433974068267</v>
+      </c>
+      <c r="R18">
+        <v>168.969057666144</v>
+      </c>
+      <c r="S18">
+        <v>0.0529950151412447</v>
+      </c>
+      <c r="T18">
+        <v>0.05995401960980238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.695328</v>
+      </c>
+      <c r="I19">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J19">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.63517166666667</v>
+      </c>
+      <c r="N19">
+        <v>52.905515</v>
+      </c>
+      <c r="O19">
+        <v>0.2017563096188048</v>
+      </c>
+      <c r="P19">
+        <v>0.2076326209402719</v>
+      </c>
+      <c r="Q19">
+        <v>9.96580010376889</v>
+      </c>
+      <c r="R19">
+        <v>89.69220093392001</v>
+      </c>
+      <c r="S19">
+        <v>0.028130828284172</v>
+      </c>
+      <c r="T19">
+        <v>0.03182480892012476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.695328</v>
+      </c>
+      <c r="I20">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J20">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>22.63913333333333</v>
+      </c>
+      <c r="N20">
+        <v>67.9174</v>
+      </c>
+      <c r="O20">
+        <v>0.2590044531823235</v>
+      </c>
+      <c r="P20">
+        <v>0.266548161745497</v>
+      </c>
+      <c r="Q20">
+        <v>12.79358554524445</v>
+      </c>
+      <c r="R20">
+        <v>115.1422699072</v>
+      </c>
+      <c r="S20">
+        <v>0.03611292162844314</v>
+      </c>
+      <c r="T20">
+        <v>0.04085506543791666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.695328</v>
+      </c>
+      <c r="I21">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J21">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.421352000000001</v>
+      </c>
+      <c r="N21">
+        <v>14.842704</v>
+      </c>
+      <c r="O21">
+        <v>0.08490445231856092</v>
+      </c>
+      <c r="P21">
+        <v>0.05825157421415626</v>
+      </c>
+      <c r="Q21">
+        <v>4.193875281152001</v>
+      </c>
+      <c r="R21">
+        <v>25.163251686912</v>
+      </c>
+      <c r="S21">
+        <v>0.01183820507644977</v>
+      </c>
+      <c r="T21">
+        <v>0.008928487297741485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0982905</v>
+      </c>
+      <c r="H22">
+        <v>2.196581</v>
+      </c>
+      <c r="I22">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J22">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.490130333333333</v>
+      </c>
+      <c r="N22">
+        <v>19.470391</v>
+      </c>
+      <c r="O22">
+        <v>0.07425075126846777</v>
+      </c>
+      <c r="P22">
+        <v>0.07641336284245376</v>
+      </c>
+      <c r="Q22">
+        <v>7.128048488861833</v>
+      </c>
+      <c r="R22">
+        <v>42.768290933171</v>
+      </c>
+      <c r="S22">
+        <v>0.02012060305781084</v>
+      </c>
+      <c r="T22">
+        <v>0.0151751509341514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0982905</v>
+      </c>
+      <c r="H23">
+        <v>2.196581</v>
+      </c>
+      <c r="I23">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J23">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>33.222491</v>
+      </c>
+      <c r="N23">
+        <v>99.667473</v>
+      </c>
+      <c r="O23">
+        <v>0.3800840336118431</v>
+      </c>
+      <c r="P23">
+        <v>0.3911542802576211</v>
+      </c>
+      <c r="Q23">
+        <v>36.4879462516355</v>
+      </c>
+      <c r="R23">
+        <v>218.927677509813</v>
+      </c>
+      <c r="S23">
+        <v>0.1029958598164813</v>
+      </c>
+      <c r="T23">
+        <v>0.07768046085979782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0982905</v>
+      </c>
+      <c r="H24">
+        <v>2.196581</v>
+      </c>
+      <c r="I24">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J24">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>17.63517166666667</v>
+      </c>
+      <c r="N24">
+        <v>52.905515</v>
+      </c>
+      <c r="O24">
+        <v>0.2017563096188048</v>
+      </c>
+      <c r="P24">
+        <v>0.2076326209402719</v>
+      </c>
+      <c r="Q24">
+        <v>19.36854150736917</v>
+      </c>
+      <c r="R24">
+        <v>116.211249044215</v>
+      </c>
+      <c r="S24">
+        <v>0.0546722901909909</v>
+      </c>
+      <c r="T24">
+        <v>0.04123436326337828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0982905</v>
+      </c>
+      <c r="H25">
+        <v>2.196581</v>
+      </c>
+      <c r="I25">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J25">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>22.63913333333333</v>
+      </c>
+      <c r="N25">
+        <v>67.9174</v>
+      </c>
+      <c r="O25">
+        <v>0.2590044531823235</v>
+      </c>
+      <c r="P25">
+        <v>0.266548161745497</v>
+      </c>
+      <c r="Q25">
+        <v>24.86434506823333</v>
+      </c>
+      <c r="R25">
+        <v>149.1860704094</v>
+      </c>
+      <c r="S25">
+        <v>0.07018549581867987</v>
+      </c>
+      <c r="T25">
+        <v>0.05293457106511803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0982905</v>
+      </c>
+      <c r="H26">
+        <v>2.196581</v>
+      </c>
+      <c r="I26">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J26">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.421352000000001</v>
+      </c>
+      <c r="N26">
+        <v>14.842704</v>
+      </c>
+      <c r="O26">
+        <v>0.08490445231856092</v>
+      </c>
+      <c r="P26">
+        <v>0.05825157421415626</v>
+      </c>
+      <c r="Q26">
+        <v>8.150800398756001</v>
+      </c>
+      <c r="R26">
+        <v>32.603201595024</v>
+      </c>
+      <c r="S26">
+        <v>0.02300756226379182</v>
+      </c>
+      <c r="T26">
+        <v>0.01156834875431792</v>
       </c>
     </row>
   </sheetData>
